--- a/data/trans_dic/P14_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P14_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>9,14%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,28</t>
+          <t>1,13; 6,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,78</t>
+          <t>4,79; 13,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,4</t>
+          <t>1,81; 7,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,06</t>
+          <t>5,98; 13,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,15</t>
+          <t>2,24; 6,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,7</t>
+          <t>6,55; 12,62</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,73</t>
+          <t>2,13; 10,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 12,21</t>
+          <t>5,13; 15,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,83</t>
+          <t>0,56; 5,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,72</t>
+          <t>3,99; 11,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,86</t>
+          <t>1,99; 6,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,45</t>
+          <t>5,42; 11,83</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>10,08%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,62</t>
+          <t>0,0; 14,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 24,37</t>
+          <t>2,09; 32,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,3</t>
+          <t>0,0; 12,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,48</t>
+          <t>2,39; 20,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,07</t>
+          <t>0,0; 8,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 15,93</t>
+          <t>3,59; 20,87</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,42</t>
+          <t>2,12; 6,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,89</t>
+          <t>6,36; 13,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,03</t>
+          <t>1,79; 5,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 9,28</t>
+          <t>5,97; 11,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,21</t>
+          <t>2,35; 4,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,35</t>
+          <t>6,92; 11,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13633</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31820</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21914</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35547</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>71977</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4840; 27618</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17551; 49868</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9227; 38829</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25180; 58152</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21057; 58958</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>51552; 99324</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18968</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>31045</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9278</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23664</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28246</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>54709</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7668; 37034</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16322; 49822</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2366; 23062</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13497; 40012</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15624; 47816</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35611; 77709</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2716</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9992</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6248</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5041</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16240</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14736</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1667; 25761</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12759</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1952; 16689</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17442</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5780; 33633</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35318</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>72857</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33517</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>70069</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>68834</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>142927</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18916; 58489</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48581; 100097</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18553; 55986</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50215; 95685</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>45266; 95735</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>110998; 179413</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>